--- a/smallpt/binary/resolution_change.xlsx
+++ b/smallpt/binary/resolution_change.xlsx
@@ -694,33 +694,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>resolution_change!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>87296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>349184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>786432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1397760</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2183680</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3145728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>resolution_change!$F$2:$F$7</c:f>
@@ -843,7 +816,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Methods</a:t>
+                  <a:t>Configurations (runs)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1660,16 +1633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>65532</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118872</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1957,12 +1930,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/smallpt/binary/resolution_change.xlsx
+++ b/smallpt/binary/resolution_change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>w</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>method</t>
+  </si>
+  <si>
+    <t>omp_change_resolution</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>efficiency</t>
   </si>
 </sst>
 </file>
@@ -621,12 +636,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Of Execution</a:t>
+              <a:t>Serial Time per Pixels vs OMP_Pixels</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -682,7 +693,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Pixels</c:v>
+            <c:v>Sequential Pixels</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -694,9 +705,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>resolution_change!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>87296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>786432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1397760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2183680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3145728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>resolution_change!$F$2:$F$7</c:f>
+              <c:f>resolution_change!$F$4:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -731,7 +769,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Samples</c:v>
+            <c:v>OpenMP_Pixels</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -743,36 +781,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>resolution_change!$F$10:$F$15</c:f>
+              <c:f>resolution_change!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>92.614000000000004</c:v>
+                  <c:v>87296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.35499999999999</c:v>
+                  <c:v>349184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>278.27199999999999</c:v>
+                  <c:v>786432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>366.65</c:v>
+                  <c:v>1397760</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>467.83300000000003</c:v>
+                  <c:v>2183680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>561.29999999999995</c:v>
+                  <c:v>3145728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>resolution_change!$F$19:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.360999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA53-4EFE-85E3-6922240E6BBF}"/>
+              <c16:uniqueId val="{00000001-9005-4EF5-A3C4-460FA62F3D28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -816,7 +881,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Configurations (runs)</a:t>
+                  <a:t>Pixels</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1084,7 +1149,675 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Samples</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>resolution_change!$F$12:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>92.614000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.35499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278.27199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>467.83300000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>561.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-427C-4E16-80A6-C8AA28F44B91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="582969440"/>
+        <c:axId val="582270376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="582969440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582270376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582270376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582969440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speed-up omp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>resolution_change!$G$19:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.490460157126822</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.324059353471119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.644839665858258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.68702875399361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4904209101915811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.653540306394655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F72-4080-BA32-55AE3DB40142}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="576596536"/>
+        <c:axId val="576595880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="576596536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576595880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="576595880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576596536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1629,20 +2362,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>118872</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1656,6 +3397,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1927,18 +3728,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1957,226 +3758,369 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>341</v>
-      </c>
-      <c r="C2">
-        <v>256</v>
-      </c>
-      <c r="D2">
-        <v>87296</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>10238</v>
+        <v>94160</v>
       </c>
       <c r="F2">
-        <v>10.238</v>
+        <v>94.16</v>
+      </c>
+      <c r="L2">
+        <v>94.16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>682</v>
-      </c>
-      <c r="C3">
-        <v>512</v>
-      </c>
-      <c r="D3">
-        <v>349184</v>
-      </c>
-      <c r="E3">
-        <v>38963</v>
-      </c>
-      <c r="F3">
-        <v>38.963000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1024</v>
+        <v>341</v>
       </c>
       <c r="C4">
-        <v>768</v>
+        <v>256</v>
       </c>
       <c r="D4">
-        <v>786432</v>
+        <v>87296</v>
       </c>
       <c r="E4">
-        <v>86428</v>
+        <v>10238</v>
       </c>
       <c r="F4">
-        <v>86.427999999999997</v>
+        <v>10.238</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1365</v>
+        <v>682</v>
       </c>
       <c r="C5">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="D5">
-        <v>1397760</v>
+        <v>349184</v>
       </c>
       <c r="E5">
-        <v>167252</v>
+        <v>38963</v>
       </c>
       <c r="F5">
-        <v>167.25200000000001</v>
+        <v>38.963000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1706</v>
+        <v>1024</v>
       </c>
       <c r="C6">
-        <v>1280</v>
+        <v>768</v>
       </c>
       <c r="D6">
-        <v>2183680</v>
+        <v>786432</v>
       </c>
       <c r="E6">
-        <v>266510</v>
+        <v>86428</v>
       </c>
       <c r="F6">
-        <v>266.51</v>
+        <v>86.427999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>1365</v>
+      </c>
+      <c r="C7">
+        <v>1024</v>
+      </c>
+      <c r="D7">
+        <v>1397760</v>
+      </c>
+      <c r="E7">
+        <v>167252</v>
+      </c>
+      <c r="F7">
+        <v>167.25200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1706</v>
+      </c>
+      <c r="C8">
+        <v>1280</v>
+      </c>
+      <c r="D8">
+        <v>2183680</v>
+      </c>
+      <c r="E8">
+        <v>266510</v>
+      </c>
+      <c r="F8">
+        <v>266.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>2048</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>1536</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>3145728</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>379973</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>379.97300000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>92614</v>
-      </c>
-      <c r="F10" s="1">
-        <f>E10/1000</f>
-        <v>92.614000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>183355</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F15" si="0">E11/1000</f>
-        <v>183.35499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>92614</v>
+      </c>
+      <c r="F12" s="1">
+        <f>E12/1000</f>
+        <v>92.614000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>183355</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:F17" si="0">E13/1000</f>
+        <v>183.35499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <v>278272</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>278.27199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>366650</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>366.65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D16" s="1">
         <v>15</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>467833</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>467.83300000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D17" s="1">
         <v>18</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E17" s="1">
         <v>561300</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>561.29999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>891</v>
+      </c>
+      <c r="F19">
+        <f>E19/1000</f>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G19">
+        <f>F4/F19</f>
+        <v>11.490460157126822</v>
+      </c>
+      <c r="H19">
+        <f>G19/12</f>
+        <v>0.95753834642723523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>3774</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F24" si="1">E20/1000</f>
+        <v>3.774</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G24" si="2">F5/F20</f>
+        <v>10.324059353471119</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H24" si="3">G20/12</f>
+        <v>0.86033827945592656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>7422</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>11.644839665858258</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0.97040330548818821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>15650</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>15.65</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>10.68702875399361</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0.89058572949946757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>28082</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>28.082000000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>9.4904209101915811</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>0.79086840918263179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>39361</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>39.360999999999997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>9.653540306394655</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0.80446169219955455</v>
       </c>
     </row>
   </sheetData>
